--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_mt.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_mt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE47CAE9-B2CF-4028-A9F6-C618E6C58D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12911051-FD8F-464A-9C57-CA7804165ECB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -884,16 +884,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -917,9 +911,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,21 +1218,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>282</v>
       </c>
@@ -1253,7 +1246,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5100102</v>
       </c>
@@ -1264,7 +1257,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5100201</v>
       </c>
@@ -1275,7 +1268,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5100250</v>
       </c>
@@ -1286,7 +1279,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5100300</v>
       </c>
@@ -1297,7 +1290,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5100359</v>
       </c>
@@ -1308,7 +1301,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5100409</v>
       </c>
@@ -1319,7 +1312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5100508</v>
       </c>
@@ -1330,7 +1323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5100607</v>
       </c>
@@ -1341,7 +1334,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5100805</v>
       </c>
@@ -1352,7 +1345,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5101001</v>
       </c>
@@ -1363,7 +1356,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5101209</v>
       </c>
@@ -1374,7 +1367,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5101258</v>
       </c>
@@ -1385,7 +1378,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5101308</v>
       </c>
@@ -1396,7 +1389,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5101407</v>
       </c>
@@ -1407,7 +1400,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5101605</v>
       </c>
@@ -1418,7 +1411,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5101704</v>
       </c>
@@ -1429,7 +1422,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5101803</v>
       </c>
@@ -1440,7 +1433,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5101852</v>
       </c>
@@ -1451,7 +1444,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5101902</v>
       </c>
@@ -1462,7 +1455,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5102504</v>
       </c>
@@ -1473,7 +1466,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5102603</v>
       </c>
@@ -1484,7 +1477,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5102637</v>
       </c>
@@ -1495,7 +1488,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5102678</v>
       </c>
@@ -1506,7 +1499,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5102686</v>
       </c>
@@ -1517,7 +1510,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5102694</v>
       </c>
@@ -1528,7 +1521,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5102702</v>
       </c>
@@ -1539,7 +1532,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5102793</v>
       </c>
@@ -1550,7 +1543,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5102850</v>
       </c>
@@ -1561,7 +1554,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5103007</v>
       </c>
@@ -1572,7 +1565,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5103056</v>
       </c>
@@ -1583,7 +1576,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5103106</v>
       </c>
@@ -1594,7 +1587,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5103205</v>
       </c>
@@ -1605,7 +1598,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5103254</v>
       </c>
@@ -1616,7 +1609,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5103304</v>
       </c>
@@ -1627,7 +1620,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5103353</v>
       </c>
@@ -1638,7 +1631,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5103361</v>
       </c>
@@ -1649,7 +1642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5103379</v>
       </c>
@@ -1660,7 +1653,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5103403</v>
       </c>
@@ -1671,7 +1664,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5103437</v>
       </c>
@@ -1682,7 +1675,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5103452</v>
       </c>
@@ -1693,7 +1686,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5103502</v>
       </c>
@@ -1704,7 +1697,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5103601</v>
       </c>
@@ -1715,7 +1708,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5103700</v>
       </c>
@@ -1726,7 +1719,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5103809</v>
       </c>
@@ -1737,7 +1730,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5103858</v>
       </c>
@@ -1748,7 +1741,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5103908</v>
       </c>
@@ -1759,7 +1752,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5103957</v>
       </c>
@@ -1770,7 +1763,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5104104</v>
       </c>
@@ -1781,7 +1774,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5104203</v>
       </c>
@@ -1792,7 +1785,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5104500</v>
       </c>
@@ -1803,7 +1796,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5104526</v>
       </c>
@@ -1814,7 +1807,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5104542</v>
       </c>
@@ -1825,7 +1818,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5104559</v>
       </c>
@@ -1836,7 +1829,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5104609</v>
       </c>
@@ -1847,7 +1840,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5104807</v>
       </c>
@@ -1858,7 +1851,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5104906</v>
       </c>
@@ -1869,7 +1862,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5105002</v>
       </c>
@@ -1880,7 +1873,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5105101</v>
       </c>
@@ -1891,7 +1884,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5105150</v>
       </c>
@@ -1902,7 +1895,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5105176</v>
       </c>
@@ -1913,7 +1906,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5105200</v>
       </c>
@@ -1924,7 +1917,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5105234</v>
       </c>
@@ -1935,7 +1928,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>5105259</v>
       </c>
@@ -1946,7 +1939,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>5105309</v>
       </c>
@@ -1957,7 +1950,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5105507</v>
       </c>
@@ -1968,7 +1961,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5105580</v>
       </c>
@@ -1979,7 +1972,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5105606</v>
       </c>
@@ -1990,7 +1983,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>5105622</v>
       </c>
@@ -2001,7 +1994,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5105903</v>
       </c>
@@ -2012,7 +2005,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5106000</v>
       </c>
@@ -2023,7 +2016,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5106109</v>
       </c>
@@ -2034,7 +2027,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5106158</v>
       </c>
@@ -2045,7 +2038,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5106174</v>
       </c>
@@ -2056,7 +2049,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>5106182</v>
       </c>
@@ -2067,7 +2060,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5106190</v>
       </c>
@@ -2078,7 +2071,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5106208</v>
       </c>
@@ -2089,7 +2082,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5106216</v>
       </c>
@@ -2100,7 +2093,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5106224</v>
       </c>
@@ -2111,7 +2104,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5106232</v>
       </c>
@@ -2122,7 +2115,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>5106240</v>
       </c>
@@ -2133,7 +2126,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>5106257</v>
       </c>
@@ -2144,7 +2137,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>5106265</v>
       </c>
@@ -2155,7 +2148,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>5106273</v>
       </c>
@@ -2166,7 +2159,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5106281</v>
       </c>
@@ -2177,7 +2170,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5106299</v>
       </c>
@@ -2188,7 +2181,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>5106307</v>
       </c>
@@ -2199,7 +2192,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5106315</v>
       </c>
@@ -2210,7 +2203,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5106372</v>
       </c>
@@ -2221,7 +2214,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5106422</v>
       </c>
@@ -2232,7 +2225,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5106455</v>
       </c>
@@ -2243,7 +2236,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5106505</v>
       </c>
@@ -2254,7 +2247,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5106653</v>
       </c>
@@ -2265,7 +2258,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5106703</v>
       </c>
@@ -2276,7 +2269,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5106752</v>
       </c>
@@ -2287,7 +2280,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5106778</v>
       </c>
@@ -2298,7 +2291,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5106802</v>
       </c>
@@ -2309,7 +2302,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5106828</v>
       </c>
@@ -2320,7 +2313,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>5106851</v>
       </c>
@@ -2331,7 +2324,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>5107008</v>
       </c>
@@ -2342,7 +2335,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>5107040</v>
       </c>
@@ -2353,7 +2346,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>5107065</v>
       </c>
@@ -2364,7 +2357,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>5107107</v>
       </c>
@@ -2375,7 +2368,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>5107156</v>
       </c>
@@ -2386,7 +2379,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>5107180</v>
       </c>
@@ -2397,7 +2390,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>5107198</v>
       </c>
@@ -2408,7 +2401,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5107206</v>
       </c>
@@ -2419,7 +2412,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5107248</v>
       </c>
@@ -2430,7 +2423,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>5107263</v>
       </c>
@@ -2441,7 +2434,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5107297</v>
       </c>
@@ -2452,7 +2445,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>5107305</v>
       </c>
@@ -2463,7 +2456,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>5107354</v>
       </c>
@@ -2474,7 +2467,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>5107404</v>
       </c>
@@ -2485,7 +2478,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>5107578</v>
       </c>
@@ -2496,7 +2489,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>5107602</v>
       </c>
@@ -2507,7 +2500,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>5107701</v>
       </c>
@@ -2518,7 +2511,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>5107743</v>
       </c>
@@ -2529,7 +2522,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>5107750</v>
       </c>
@@ -2540,7 +2533,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>5107768</v>
       </c>
@@ -2551,7 +2544,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>5107776</v>
       </c>
@@ -2562,7 +2555,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>5107792</v>
       </c>
@@ -2573,7 +2566,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>5107800</v>
       </c>
@@ -2584,7 +2577,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>5107859</v>
       </c>
@@ -2595,7 +2588,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>5107875</v>
       </c>
@@ -2606,7 +2599,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>5107883</v>
       </c>
@@ -2617,7 +2610,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5107909</v>
       </c>
@@ -2628,7 +2621,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>5107925</v>
       </c>
@@ -2639,7 +2632,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>5107941</v>
       </c>
@@ -2650,7 +2643,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>5107958</v>
       </c>
@@ -2661,7 +2654,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>5108006</v>
       </c>
@@ -2672,7 +2665,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>5108055</v>
       </c>
@@ -2683,7 +2676,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>5108105</v>
       </c>
@@ -2694,7 +2687,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>5108204</v>
       </c>
@@ -2705,7 +2698,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>5108303</v>
       </c>
@@ -2716,7 +2709,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>5108352</v>
       </c>
@@ -2727,7 +2720,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>5108402</v>
       </c>
@@ -2738,7 +2731,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>5108501</v>
       </c>
@@ -2749,7 +2742,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>5108600</v>
       </c>
@@ -2760,7 +2753,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>5108808</v>
       </c>
@@ -2771,7 +2764,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>5108857</v>
       </c>
@@ -2782,7 +2775,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>5108907</v>
       </c>
@@ -2793,7 +2786,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>5108956</v>
       </c>
@@ -2803,9 +2796,6 @@
       <c r="C142" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
